--- a/biology/Biologie cellulaire et moléculaire/AAK1/AAK1.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/AAK1/AAK1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'AAK1 (de l'anglais : Adaptor-associated protein kinase 1) ou protéine kinase 1 associée à l'AP-2 est une enzyme encodée chez l'humain par le gène AAK1[5],[6],[7]. 
-Des variantes de transcription épissées alternativement ont été décrites, mais leur validité biologique n'a pas été déterminée[7].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'AAK1 (de l'anglais : Adaptor-associated protein kinase 1) ou protéine kinase 1 associée à l'AP-2 est une enzyme encodée chez l'humain par le gène AAK1. 
+Des variantes de transcription épissées alternativement ont été décrites, mais leur validité biologique n'a pas été déterminée.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le complexe AP-2 (Adaptor-related protein complex 2) fonctionne pendant l'endocytose médiée par récepteurs pour déclencher l'assemblage de la clathrine, interagir avec les récepteurs liés à la membrane et recruter des facteurs accessoires endocytaires. Ce gène code un membre de la sous-famille SNF1 des protéines kinases Ser / Thr. La protéine interagit avec et phosphoryle une sous-unité du complexe AP-2 qui favorise la liaison sélective de l'AP-2 avec les signaux des récepteurs de la membrane et l'endocytose des récepteurs concernés. Son activité de kinase est stimulée par la clathrine[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le complexe AP-2 (Adaptor-related protein complex 2) fonctionne pendant l'endocytose médiée par récepteurs pour déclencher l'assemblage de la clathrine, interagir avec les récepteurs liés à la membrane et recruter des facteurs accessoires endocytaires. Ce gène code un membre de la sous-famille SNF1 des protéines kinases Ser / Thr. La protéine interagit avec et phosphoryle une sous-unité du complexe AP-2 qui favorise la liaison sélective de l'AP-2 avec les signaux des récepteurs de la membrane et l'endocytose des récepteurs concernés. Son activité de kinase est stimulée par la clathrine.
 </t>
         </is>
       </c>
